--- a/big-data/big-data-capstone/project/data/beer_n_Cass Fresh.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Cass Fresh.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kingmidas(39)
+          <t>kingmidas(41)
 1.2September 21, 2022
 Taki koncerniak, słaby, lekko słodszy niż normalnie ale generalnie słabizna
 BOTTLE
@@ -565,7 +565,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>medkung(152)
+          <t>medkung(153)
 🇹🇭Bangkok, Thailand
 2.3September 10, 2022
 BBF 29 June 2023
@@ -707,7 +707,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>caribou43(2,669)
+          <t>caribou43(2,673)
 🇨🇭Lausanne, Switzerland
 3.2June 6, 2022
 This bottle is coming from an Asian shop, Lausanne, Sallaz. Opening this beverage on friday, in our flat, Epalinges, at night, relax. Not a huge thing but it is drinkable, industrial lager,…
@@ -778,7 +778,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ads135(7,531)
+          <t>ads135(7,536)
 🇺🇸Omaha, United States
 2.3May 28, 2022
 A standard lager. Light and relatively dry, with a tinge of grassy hop bitterness. Got a massive bottle to accompany our coal fired bbq when Jess and I visited Dave and Kaitlin in Chicago…
@@ -848,7 +848,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>joe19612(4,732)
+          <t>joe19612(4,733)
 🇬🇧CAMBERLEY, England
 2.2April 17, 2022
 Bottle. Pours a clear gold colour with a thin white head light hop, the taste is medium bitterness with a dry bitter finish.
@@ -919,7 +919,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>hopihalido(2,248)
+          <t>hopihalido(2,252)
 🇩🇪Hamburg, Germany
 1.5March 17, 2022
 AR: Hopfen, Malz, süssöich
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BeardedAvenger(5,892)
+          <t>BeardedAvenger(5,922)
 🇬🇧New Haw, England
 1.4February 5, 2022
 Bottle from Asia Oriental Supermarket, Farnborough. Aroma is yer typical yeasty malty saccharine and glue lager miasma. Clear gold. Thin  foamy white head. Some grainy bitterness…
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>onceblind(17,642)
+          <t>onceblind(17,653)
 🇺🇸Denver, United States
 3.3November 20, 2021
 Clear brilliant light gold with a thin rocky white head. Light pale grainy Lagery nose with a hint of fruity esters. Crisp dry flavor that’s golden and light with bready lager tones and a hint of…
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sigmund(12,249)
+          <t>Sigmund(12,265)
 🇳🇴Tau, Norway
 1.6June 26, 2021
 330 ml bottle, from Green Peas, Stavanger. ABV is 4.5%. Clear pale golden colour, moderate white head. Sweetish aroma of pilsener malts, starch, grass and candy. Fizzy mouthfeel.…
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>hamilton_w(382)
+          <t>hamilton_w(383)
 🇨🇳Horqin, China
 1.7April 8, 2021
 Unnoticeable aroma, mouthfeel was weaker than expected. A below-average lager.
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>allmyvinyl(17,003)
+          <t>allmyvinyl(17,010)
 🇬🇧Edinburgh, Scotland
 2.4November 1, 2020
 Bottle from the Chinese Mini-Market on Gorgie Road, Edinburgh. Pours clear golden with no head. Aromas are metallic and sugary. Taste is more of the same. Watery finish.
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BlackHaddock(13,417)
+          <t>BlackHaddock(13,427)
 🇬🇧The County Time Forgot, England
 2.0December 13, 2019
 Large bottle, drank on 11th Dec 2019 in a Korean BBQ joint, Irvine, Orange County, California. Light golden pour, snow white head, my oily and fatty mouth from the BBQ meats ensured it…
@@ -2190,7 +2190,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tricksta_p(10,853)
+          <t>tricksta_p(10,858)
 🇳🇱Steenwijk, Netherlands
 1.5October 26, 2019
 Bottle shared with ShivanDragon, thanks! Sweetish with some malt, low hop profile. Medium body. Boring lager, few saving graces.
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fombe89(8,965)
+          <t>fombe89(8,968)
 🇪🇸Asturias, Spain
 1.5October 13, 2019
 Botella @Mercado de San Antón, Madrid. 28/09/2019
@@ -2610,7 +2610,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>vinivini(8,602)
+          <t>vinivini(8,612)
 🇧🇾Homiel, Belarus
 2.2April 10, 2019
 Clear golden colour. Large white fluffy head. Good retention. Aroma: grains, bread. Similar taste. Light body. Low bitterness. Bland.
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Iphonephan(10,683)
+          <t>Iphonephan(10,691)
 🇺🇸JACKSON HOLE, United States
 1.8October 6, 2018
 From a can on a Korea Air flight. Pours a clear pale gold with a white head. Bready aroma. Flavors are sweet grain. Crisp finish. Totally unremarkable.
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cimbasso(1,893)
+          <t>Cimbasso(1,894)
 🇬🇧London, England
 1.8August 5, 2018
 Sampled from a can in Itaewon. Very pale yellow with a quickly disappearing white head. Some grain taste and notes of green pear and wet cardboard. A little bit of alcohol but no hop…
@@ -3651,7 +3651,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ALLOVATE(3,707)
+          <t>ALLOVATE(3,708)
 🇦🇺Perth, Australia
 1.9June 24, 2018
 Geez, I swear I had drank many of these years prior and already rated this. From the bargain bin of my local. Chilled and into a tulip. Palest, yellow gold body and bright as bright. Headless…
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lore(5,635)
+          <t>Lore(5,636)
 🇭🇺Budapest, Hungary
 0.8April 18, 2018
 clear pale yellow 'beer' with practically no head at all, only some white spots on the top of it; aroma of hay, wet grains, cardboard and metallic notes; taste...well besides some sourish-malty…
@@ -4274,7 +4274,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>jhsnitz1(1,349)
+          <t>jhsnitz1(1,352)
 🇺🇸Pendleton, United States
 2.0March 18, 2018
 Tastes like any number of generic lagers, leans toward the sweet side with a lot of carbonation.
@@ -4482,7 +4482,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DijkBier(2,647)
+          <t>DijkBier(2,653)
 🇳🇱AMSTERDAM, Netherlands
 2.1January 4, 2018
 Bottle at Korean restaurant, pours clear golden with white head. Aroma is malty, murky. Taste rather sweet. Little carbonation. That makes it a disappointing pilsener.
@@ -4620,7 +4620,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>brnandersen(6,559)
+          <t>brnandersen(6,560)
 🇩🇰Copenhagen, Denmark
 2.1December 21, 2017
 Sample from 33 cl bottle. Clear golden colour with a thin white head. Sweet aroma with grasses, perfumed notes, bread and grains. Taste is light sweet. Light to medium body with a…
@@ -4690,7 +4690,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Borup(22,599)
+          <t>Borup(22,600)
 🇩🇰Albertslund, Denmark
 2.2December 21, 2017
 33 cl. bottle. A clear yellow coloured beer with a white head. Aroma and flavour of malt, hops, straw and with a bitter finish.
@@ -4759,7 +4759,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ungstrup(48,899)
+          <t>Ungstrup(48,915)
 🇩🇰Citizen of the universe, Denmark
 2.0December 21, 2017
 Bottled. A golden beer with a white head. The aroma has notes of straw, and fruit. The flavor is sweet with notes of straw and metal, leading to a metallic finish.
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Zlotta(8,028)
+          <t>Zlotta(8,037)
 🇩🇪Hagen, Germany
 2.2December 1, 2017
 Sampled from 0.33 l bottle from 'Shochiku', bottled in July 2017. Clear, golden yellow with a thin, frothy, slowly diminishing, white head. Sweetish, a little grassy aroma of grains and…
@@ -5107,7 +5107,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Eructoblaster(7,443)
+          <t>Eructoblaster(7,480)
 🇨🇦Gatineau, Canada
 1.4November 25, 2017
 Can - 355ml. Pale blond, heavily carbonated body with an instantly fading, white bubbly head. Very thin malty/hoppy aroma with some bready hints. Its watery taste carries bready,…
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Travlr(30,858)
+          <t>Travlr(30,862)
 🇺🇸No fixed abode, United States
 0.7September 19, 2017
 Cam. Clear pale yellow color white coca cola head. Cereal aroma. Taste is lightly flavored water. Woof.
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>douglas88(12,575)
+          <t>douglas88(12,577)
 🇺🇸Portland, United States
 2.9September 6, 2017
 640 ml bottle from a Korean grocery store! Hell yes. Pours a clear yellow hue with a large white head. Soft fruity bready nose. Sweet, bready, toast, some paper, dust, pear. OK.…
@@ -6079,7 +6079,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>KyotoLefty(14,482)
+          <t>KyotoLefty(14,484)
 🇯🇵Kyoto, Japan
 2.1April 2, 2017
 Can at Inchon. Nose of corn, sweet mash, creamy. Very pale yellow. Lame, thin, sweet and grainy flavor. Almost no hops at all. Thick but watery, fruity and estery. Peaches, melon, orange…
@@ -6288,7 +6288,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>deanso(15,165)
+          <t>deanso(15,171)
 🇬🇧Doncaster, England
 1.8February 23, 2017
 33cl can courtesy og JMGreenUK
@@ -6359,7 +6359,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rubin77(7,793)
+          <t>Rubin77(7,803)
 🇧🇪Brussels, Belgium
 2.2February 1, 2017
 F: big, white, good retention.
@@ -6500,7 +6500,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ANZUShophunter(2,751)
+          <t>ANZUShophunter(2,758)
 🇦🇺Brisbane, Australia
 1.6July 8, 2020
 Rating from old records. From bottle into shaker. Fairly ordinary in all aspects
@@ -6640,7 +6640,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>YantarCoast(3,965)
+          <t>YantarCoast(3,970)
 🇷🇺Moscow, Russia
 2.0December 25, 2016
 500ml from a Korean store down the road from Piligrim in Moscow. Pours clear yellow with a small white head. Aroma is corn, paper, pale malt. Taste is stale malt, corn. Reminds me…
@@ -6710,7 +6710,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Marduk(17,800)
+          <t>Marduk(17,850)
 🇪🇪Reval, Estonia
 1.5November 26, 2016
 330ml can (thanks Ares). Clear pale yellow color. Small size, white head, stays. Papery, plastic, corny, straw in aroma. Plastic, horrible acetone, corny, starch, sweet and papery in…
@@ -6780,7 +6780,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>glennmastrange(3,462)
+          <t>glennmastrange(3,463)
 🇺🇸hobe sound, United States
 2.3November 20, 2016
 Bottle. Pale grain and perfume aromas, light sweetness and some acidity, and a water feel. Drinkable, but I’ll pass.
@@ -6918,7 +6918,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>efeesse(1,387)
+          <t>efeesse(1,388)
 🇩🇪Ingolstadt, Germany
 2.2October 19, 2016
 Beer with light color, light body, soft carbonized, some foam in the top, (drunk from beer tower in Jeju,KR restaurant).
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KeefOz(3,446)
+          <t>KeefOz(3,447)
 🇦🇺TARRAGINDI, Australia
 2.4September 12, 2016
 BB Apr 2017. Poured a crystal clear mid-amber with a one- to two-finger bright white foamy head that retained very well but laced poorly. Carbonation high, lively and medium to coarse.…
@@ -7335,7 +7335,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>explosivedog(9,851)
+          <t>explosivedog(9,871)
 🇺🇸New York, United States
 1.8July 18, 2016
 355ml can. Pretty much your standard watery mass produced lager. Unpleasant aroma and a taste that mostly gets washed away.
@@ -7474,7 +7474,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DrNosha(7,209)
+          <t>DrNosha(7,211)
 🇩🇪Württemberg, Germany
 1.2July 11, 2016
 330ml Flasche. Strohgelbes Bier, fast kein Schaum. Getreideduft mit Industrie Charakter. Wässeriger Geschmack. Etwas Süsse und Getreide.
@@ -7750,7 +7750,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Defreni(5,225)
+          <t>Defreni(5,231)
 🇩🇰Husum, Denmark
 2.2June 27, 2016
 Fad. Mærkeligt at kalde noget bier når der rent faktisk kun er en hane, men oh Well. Dødsyg makrolager. Virkelig ikke noget at komme efter. Men en eating er en rating.
@@ -8098,7 +8098,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>fiulijn(27,657)
+          <t>fiulijn(27,674)
 🇨🇦Vancouver, Canada
 1.4April 7, 2016
 Tasting at Matt’s
@@ -8237,7 +8237,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>mcberko(36,641)
+          <t>mcberko(36,658)
 🇨🇦Vancouver, Canada
 0.8April 7, 2016
 650mL bottle, pours a clear pale yellow with a small white head. Aroma is quite sharp, with crisp herbal, grassy, skunky notes. Flavour is along the same lines, with the same, skunky…
@@ -8725,7 +8725,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>mike_77(12,711)
+          <t>mike_77(12,721)
 🇳🇱Breda, Netherlands
 2.1February 13, 2016
 Pale yellow appearance. Weak malty aroma. Thin and light bodied with a watery taste..
@@ -8794,7 +8794,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>sulawang(1,808)
+          <t>sulawang(1,809)
 2.0February 8, 2016
 Visual: Pours ultra clear golden yellow with a decent creamy dissipating head, a thin half layer of retention, a few clusters of steady streams.…
 Show more
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>jmgreenuk(17,115)
+          <t>jmgreenuk(17,138)
 🇲🇾Kuala Lumpur, Malaysia
 1.8January 23, 2016
 Bottle from a Langkawi night shop. Poured a clear straw colour with a thin broken white head. The aroma is light mineral malt. The flavour is light bitter with a watery dry malt, mineral light…
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>thorongil2(6,233)
+          <t>thorongil2(6,243)
 🇺🇸Camas, United States
 2.1October 15, 2015
 (can) clear very pale yellow colour with a tall, white head; aroma of noble hops, hint of skunk; neutral flavour, very little of it, no finish; if the idea was to create a beer with as little flavour as…
@@ -9560,7 +9560,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>jbruner(8,826)
+          <t>jbruner(8,828)
 🇺🇸Lakewood, United States
 1.8August 9, 2015
 Pours a clear yellow gold from the can with little to no lace or head. Aroma and taste of sweet shitty malt and minimal fruity yeast. Wow, bud light Asia. Fuck this.
@@ -9769,7 +9769,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SVD(5,169)
+          <t>SVD(5,173)
 🇳🇱Nijmegen, Netherlands
 3.0June 24, 2015
 Bottle at home from some asian supermarket. Light yellow golden beer, small head, aroma is hay, some malts. Taste is quite lemony, light bitter, some sweetness. Not bad, actually…
@@ -9908,7 +9908,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>rennat42(4,763)
+          <t>rennat42(4,764)
 🇺🇸Ravenna, United States
 3.0April 30, 2015
 Bottle.…
@@ -10047,7 +10047,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>RobBestwick(1,330)
+          <t>RobBestwick(1,331)
 🇨🇦Calgary, Canada
 1.5April 19, 2015
 Bottle. Faint metallic aroma. Pours golden with a small white head. Rice , metallic notes, bubblegum? Very thin with a watery finish. Not good.
@@ -10324,7 +10324,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Erzengel(13,937)
+          <t>Erzengel(13,941)
 🇩🇪Saarland &amp; Düsseldorf, Germany
 1.7February 26, 2015
 330ml bottle from a Korean shop in Düsseldorf.  Sweetish and very grainy beginning. Nearly no bitterness there, not even in the end. Lots of grain, moderate sweetish with an abrupt…
@@ -11227,7 +11227,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>GuideDogSaint(3,140)
+          <t>GuideDogSaint(3,142)
 🇨🇳Xiamen, China
 0.5September 12, 2014
 355ml can from Carrefour, Xiamen. Pours pale yellow with a fast disappearing white head. Medicinal aroma. Watery sweet unpleasant finish. Not good at all.
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>shrubber85(14,083)
+          <t>shrubber85(14,086)
 🇺🇸Greenville, United States
 1.9August 24, 2014
 Bottle. Slightly sour barley malt aroma. Golden yellow with minimal head. Slightly sweet barley malt flavor. Mild plastic in the finish. Chlorophenol issues but otherwise not horrible.
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>gunnfryd(19,756)
+          <t>gunnfryd(19,769)
 🇳🇴Kristiansand, Norway
 1.8September 12, 2013
 Can. Golden colour with a white head. Aroma is fruit, malt, hop, pine. Flavour is fruit, malt, corn, hint of hop. Boring beer.
@@ -12757,7 +12757,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>fonefan(70,890)
+          <t>fonefan(70,958)
 🇩🇰VestJylland, Denmark
 1.9September 9, 2013
 Can 330ml.
@@ -13178,7 +13178,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>chrisv10(23,975)
+          <t>chrisv10(23,980)
 🇩🇰Denmark
 1.5June 28, 2013
 Bottle. Clear yellow with tiny head. Aroma is malt, grainy and cardboard. Flavour is malt, grainy, cardboatd, little sweet and watery.
@@ -13247,7 +13247,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Rasmus40(31,650)
+          <t>Rasmus40(31,652)
 🇩🇰Beder, Aarhus, Denmark
 1.8June 28, 2013
 Bottle @ fonefan tasting. Clear yellow with a white head. Aroma is sweet, malty and corn. Flavor is medium sweet and light bitter. Sweet finish. Watery. 280613
@@ -13316,7 +13316,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>saxo(26,159)
+          <t>saxo(26,163)
 🇩🇰Over Hornbæk, Randers, Denmark
 2.2June 28, 2013
 Bottle @ fonefan tasting. Nice head with good duration. Color is yellow. Aroma and taste are sweet malt, straw and hops.
@@ -13455,7 +13455,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>FatPhil(23,239)
+          <t>FatPhil(23,250)
 🇪🇪Tallinn, Estonia
 1.6November 26, 2016
 Bottle (Everywhere, Suwon) (4:2:4:2:7=1.9)…
@@ -13525,7 +13525,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>KansaiBeerLvrs(7,921)
+          <t>KansaiBeerLvrs(7,923)
 🇯🇵Kyoto, Japan
 1.5May 5, 2013
 On tap at 7 Bar. It pours a gold color with no head &amp; a mild grassy aroma. The flavor was hay, grass with a mild bitter finish. Boring but ok cold.
@@ -13594,7 +13594,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Cunningham(12,661)
+          <t>Cunningham(12,665)
 🇳🇴Halden, Norway
 1.3April 25, 2013
 Appearance: Clear yellow color with a white head.
@@ -13666,7 +13666,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>visionthing(7,508)
+          <t>visionthing(7,511)
 🇪🇪Tallinn, Estonia
 1.3April 22, 2013
 1L bottle (shared by Cunningham - thanks!) Pours pale golden with a white head. Smells like synthetic pear soda and stable. Taste a bit like pear soda too, or cheap shandy. Slightly…
@@ -13876,7 +13876,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>jaghana(7,691)
+          <t>jaghana(7,692)
 🇫🇷Strasbourg (Alsace), France
 2.2April 12, 2013
 Bottle 33cl @Paris Store France. A clear yellow beer, aroma is sweet with light malt notes, dusty hops, very basic lager not worst not bettre than any other industrial lager.
@@ -14433,7 +14433,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Gerbeer(6,367)
+          <t>Gerbeer(6,374)
 🇨🇦Nanoose Bay, Canada
 1.3December 9, 2012
 640 ml bottle. Pours a light clear gold with lots of carbonation and huge head of large bubbles that settle quickly. Light aromas of cereal and honey. Absolutely no immediate taste.…
@@ -14643,7 +14643,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>tomer(5,782)
+          <t>tomer(5,789)
 🇮🇱Rishon Le Zion, Israel
 1.9November 21, 2012
 At a tasting, thanks kerenmk, smallish head, clear pale yellow colour, lighyt lemony flavour, light spice and herbs flavour with a hint of honey meduim bitterness and quite dry, a bit like…
@@ -14851,7 +14851,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>brokensail(20,333)
+          <t>brokensail(20,358)
 🇺🇸Bay Area, United States
 2.0September 4, 2012
 The pour is an incredibly pale yellow with a short lived white head.  The nose is incredibly watery and bland.  Lots of fizz, cardboard, and paper to it.  Very light grain sweetness and no…
@@ -15131,7 +15131,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Jow(6,613)
+          <t>Jow(6,615)
 🇺🇸The Hop, United States
 1.8May 4, 2012
 Bottle from my favorite Korean BBQ joint.  pours pale yellow and tastes of budlight mixed with metal and water.  really not much more than seltzer but crisp and hints of beer taste
@@ -15340,7 +15340,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>obguthr(10,951)
+          <t>obguthr(10,955)
 🇺🇸Staunton, United States
 1.2March 11, 2012
 Lemony malt, cane sugar aroma. Clear yellow, thick head. Lemon flavor with very light malt undertones. Very weak and unbeery. A touch more flavorful than seltzer.
@@ -16174,7 +16174,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>dwyerpg(9,385)
+          <t>dwyerpg(9,390)
 🇺🇸Las Vegas, United States
 1.5May 16, 2011
 Smells like a pale lager...hard to handle after an Arrogant Bastard. The flavor is very non-distinct. Not funky bad, but really nothing there. Not good.
@@ -16243,7 +16243,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>SHIG(11,157)
+          <t>SHIG(11,159)
 🇺🇸Hampton, United States
 1.7April 25, 2011
 Tap: I enjoyed this as a change of pace beer back the last time I was in South Korea, however this is very ordinary now. Poured golden clear color with white head. Aroma is gassy lemon.…
@@ -16452,7 +16452,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Bif(3,103)
+          <t>Bif(3,106)
 🇺🇸St. Charles, United States
 2.0August 6, 2010
 The beer pours a pale gold and has much carbonation. It has a bland beer aroma. It has a surprising light taste and is refreshing when served cold, especially on a hot summer day…
@@ -17080,7 +17080,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Wim(6,144)
+          <t>Wim(6,150)
 🇧🇪Weelde, Belgium
 1.7July 27, 2009
 gold blond coloured body with a little white head a malty spicy aroma a spicy malty wattery taste with a wattery bitter finish
@@ -17149,7 +17149,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Yves(4,439)
+          <t>Yves(4,440)
 🇧🇪Beerse, Belgium
 2.0July 25, 2009
 Yellow coloured beer with small white head and only few carbonation. Sweet grainy aroma. Full palate. Finish is bitter grainy ending dry.
@@ -17426,7 +17426,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>can8ianben(2,040)
+          <t>can8ianben(2,041)
 🇺🇸State College, United States
 2.2March 12, 2009
 My wife laughs at me because every time I try a new Asian lager I say the same thing "this tastes just like the last Asian lager I had".  At some point I’ll learn my lesson, but I guess I…
@@ -17775,7 +17775,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>BelgianBeerGal(5,783)
+          <t>BelgianBeerGal(5,786)
 🇺🇸Panama City, United States
 2.1October 18, 2008
 50cl bottle in Seoul. Honestly not that bad or should say better than anticipated. Certainly nothing special but had a nice clean, fresh taste.
@@ -17913,7 +17913,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Beer5000(9,989)
+          <t>Beer5000(9,991)
 🇳🇴Kristiansand, Norway
 0.8August 11, 2008
 Pale golden with a white head. Very weak aroma. Not much flavor, a bit straw and something artificial fruity stuff. Watery body, no bitterness and no finish.
@@ -18051,7 +18051,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>patrick767(5,996)
+          <t>patrick767(6,000)
 🇺🇸fort wayne, United States
 1.0June 10, 2008
 can - Hey, if I drink this beer I’m a cool young rebel!  Woohoo!  Ok, just read my ratings of Cafri and OB Blue, also from this brewer.  This beer is more of the same only it accomplishes th…
@@ -18469,7 +18469,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Pyobon(2,456)
+          <t>Pyobon(2,457)
 🇦🇺Sydney, Australia
 1.5December 1, 2007
 Bottle. Slightly golden yellow colour with a loose white head that disappears fairly quickly. Aroma is faint but is chemical / cleaning solution. Watery mouthfeel with OK carbonation.…
@@ -18889,7 +18889,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>nimbleprop(13,646)
+          <t>nimbleprop(13,658)
 🇺🇸Southeast, Washington, United States
 1.3February 18, 2007
 From the bottle poured a dull gold color with a thin foamy white head.  No aroma.  Flavor was flatter than OB and in my humble opinion, not as nice.
@@ -19236,7 +19236,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>DrnkMcDermott(3,892)
+          <t>DrnkMcDermott(3,893)
 🇺🇸Downers Grove, United States
 1.4October 24, 2006
 Import bottle. 2nd of two Korean Heine wannabes in a row. Pours even apler than the O.B. Clingy bubbles, no head. Stale peanut shell smell. Taste, though is not as sucky as I expected…
@@ -19376,7 +19376,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>radagast83(11,616)
+          <t>radagast83(11,624)
 🇺🇸Arlington, United States
 1.6October 21, 2006
 Just another plain lager that tastes pretty much the same as other lagers.  Decent, for what it was but nothign spectacular.  Just a SK version of a general macro.
@@ -21050,7 +21050,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>omhper(35,539)
+          <t>omhper(35,612)
 🇸🇪Tyresö, Sweden
 0.9April 4, 2004
 Bottled. Pale yellow, brief dishwater head. Vague soluble aroma. Fruity and very thin. Completely empty, save for some off flavours. "Kass" means "completely useless" in Swedish.…
@@ -21674,7 +21674,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ernest(9,169)
+          <t>Ernest(9,170)
 🇺🇸Boulder, United States
 1.5May 2, 2002
 Head is initially small, fizzy, white, fully diminishing. Body is hazy light yellow, dense particles ranging in size from tiny to medium. Aroma is lightly malty (grain, cereal), with a cooked…
@@ -21744,7 +21744,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Oakes(27,868)
+          <t>Oakes(27,870)
 🇨🇦Richmond, Canada
 1.1March 30, 2002
 Refreshing, mostly due to the fact that it tastes like water. Major credit to Brian for finding citrus in this vapid excuse for alcohol transferrance.
